--- a/data/datos.xlsx
+++ b/data/datos.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\indicadores-socioeconomicos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9CD64DD7-C514-426D-B6D2-95FF8B32E435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AE0692-BCA4-48A5-A89E-B968761EE8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF598439-62DC-4F7D-BE55-398D701C39E6}"/>
+    <workbookView xWindow="28680" yWindow="-1260" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AF598439-62DC-4F7D-BE55-398D701C39E6}"/>
   </bookViews>
   <sheets>
     <sheet name="pobreza" sheetId="1" r:id="rId1"/>
+    <sheet name="bess-1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,27 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>año</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>semestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pobres </t>
-  </si>
-  <si>
-    <t>No pobres</t>
-  </si>
-  <si>
-    <t>Pobres indigentes</t>
-  </si>
-  <si>
-    <t>Pobres no indigentes</t>
-  </si>
-  <si>
-    <t>Total de pobres</t>
   </si>
   <si>
     <t>1,9</t>
@@ -82,15 +65,89 @@
   <si>
     <t>85,5</t>
   </si>
+  <si>
+    <t>anio</t>
+  </si>
+  <si>
+    <t>total_pobres</t>
+  </si>
+  <si>
+    <t>no_pobres</t>
+  </si>
+  <si>
+    <t>pobres_indigentes</t>
+  </si>
+  <si>
+    <t>pobres_no_indigentes</t>
+  </si>
+  <si>
+    <t>Total de beneficios liquidados</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Año </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>Femenino</t>
+  </si>
+  <si>
+    <t>Jubilaciones</t>
+  </si>
+  <si>
+    <r>
+      <t>Pensiones</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(3)</t>
+    </r>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Con Moratoria</t>
+  </si>
+  <si>
+    <t>Sin Moratoria</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="7">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="170" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,16 +183,298 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="46"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="27"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="51"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="52"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -152,23 +491,389 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0070C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color rgb="FF66CCFF"/>
+      </top>
+      <bottom style="dashed">
+        <color rgb="FF66CCFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF0070C0"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF00B0F0"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF0070C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="168" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -183,7 +888,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -196,11 +900,212 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="26" borderId="22" xfId="52" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="25" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="25" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="27" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="129">
+    <cellStyle name="20% - Accent1 2" xfId="58" xr:uid="{4D1EAED0-96CA-441D-9C13-E5B4EEB66841}"/>
+    <cellStyle name="20% - Accent2 2" xfId="59" xr:uid="{16821BF9-39DB-44CA-A690-6B048F470847}"/>
+    <cellStyle name="20% - Accent3 2" xfId="60" xr:uid="{C72EF5E3-25FB-4D58-A84F-25796EEDE6EF}"/>
+    <cellStyle name="20% - Accent4 2" xfId="61" xr:uid="{ADE8F1CA-6597-4A6A-B653-9006A4D9BFB2}"/>
+    <cellStyle name="20% - Accent5 2" xfId="62" xr:uid="{D80CF803-773C-43A5-A5B8-E32869C44F60}"/>
+    <cellStyle name="20% - Accent6 2" xfId="63" xr:uid="{37B58CE2-F0E7-4D28-B8F8-A0366EFAE7F8}"/>
+    <cellStyle name="20% - Énfasis1 2" xfId="4" xr:uid="{56219A3E-1473-4A2F-A1ED-1CCDC324ADE2}"/>
+    <cellStyle name="20% - Énfasis2 2" xfId="5" xr:uid="{6192C21B-7CD7-4207-9B7A-671CA26524B7}"/>
+    <cellStyle name="20% - Énfasis3 2" xfId="6" xr:uid="{44FDD3D7-0B90-45E7-AF0E-A7FD7BFCFEBF}"/>
+    <cellStyle name="20% - Énfasis4 2" xfId="7" xr:uid="{45390E38-143C-45C8-A2ED-975E9FDD4B69}"/>
+    <cellStyle name="20% - Énfasis5 2" xfId="8" xr:uid="{FF371300-AC96-44AC-B2E1-F9D70F2F60FD}"/>
+    <cellStyle name="20% - Énfasis6 2" xfId="9" xr:uid="{812EB76D-2DB1-4FFB-8517-444D55990C3D}"/>
+    <cellStyle name="40% - Accent1 2" xfId="64" xr:uid="{79BEE433-CF73-40D5-810E-CD94257F50B4}"/>
+    <cellStyle name="40% - Accent2 2" xfId="65" xr:uid="{589DF835-ABE8-4AC2-888A-9BE07027709D}"/>
+    <cellStyle name="40% - Accent3 2" xfId="66" xr:uid="{82219A63-7781-40D3-8F7E-6279D68764E2}"/>
+    <cellStyle name="40% - Accent4 2" xfId="67" xr:uid="{424BBEF1-6534-408D-937C-D4C00FC1E561}"/>
+    <cellStyle name="40% - Accent5 2" xfId="68" xr:uid="{0B2938CC-D5E2-4570-BD0B-6C99A2C024DC}"/>
+    <cellStyle name="40% - Accent6 2" xfId="69" xr:uid="{1972A75D-5B49-431F-8762-D5EBC68D8773}"/>
+    <cellStyle name="40% - Énfasis1 2" xfId="10" xr:uid="{75556AAC-FB6B-488B-9099-4DE70A869823}"/>
+    <cellStyle name="40% - Énfasis2 2" xfId="11" xr:uid="{FE588BFC-012F-4B3C-B88B-D734AE0B96EA}"/>
+    <cellStyle name="40% - Énfasis3 2" xfId="12" xr:uid="{38301564-5FC8-4C44-9296-F85591EF0B80}"/>
+    <cellStyle name="40% - Énfasis4 2" xfId="13" xr:uid="{D1821764-B8C1-42EE-81B5-355A92B74C1C}"/>
+    <cellStyle name="40% - Énfasis5 2" xfId="14" xr:uid="{E515D69F-E395-4BC0-8536-536569C6A562}"/>
+    <cellStyle name="40% - Énfasis6 2" xfId="15" xr:uid="{40CA72CE-5C7C-4B9D-8466-FAB20FB41D8E}"/>
+    <cellStyle name="60% - Accent1 2" xfId="70" xr:uid="{8EA96007-7ADA-48BD-A109-44CB854311F8}"/>
+    <cellStyle name="60% - Accent2 2" xfId="71" xr:uid="{DC95809B-5386-48EF-B584-19DE84F75057}"/>
+    <cellStyle name="60% - Accent3 2" xfId="72" xr:uid="{F9509867-FDF0-4A7B-8BC0-DDB5BA82C155}"/>
+    <cellStyle name="60% - Accent4 2" xfId="73" xr:uid="{771EDD56-7D38-4458-908B-76C8620583B9}"/>
+    <cellStyle name="60% - Accent5 2" xfId="74" xr:uid="{68BD4188-C625-4E31-8D8C-B176F49521A4}"/>
+    <cellStyle name="60% - Accent6 2" xfId="75" xr:uid="{BBE235D7-ADD8-4CCF-B797-54C59E201118}"/>
+    <cellStyle name="60% - Énfasis1 2" xfId="16" xr:uid="{E1F5CD41-F176-4010-8514-0E365C819CBF}"/>
+    <cellStyle name="60% - Énfasis2 2" xfId="17" xr:uid="{6AE07AD1-F1EA-44E9-B9C3-1945D7804A5D}"/>
+    <cellStyle name="60% - Énfasis3 2" xfId="18" xr:uid="{B250EB2B-8329-428C-A941-88D3191CB3F1}"/>
+    <cellStyle name="60% - Énfasis4 2" xfId="19" xr:uid="{2B076BDE-F733-4549-BFF1-2F130D3AA48F}"/>
+    <cellStyle name="60% - Énfasis5 2" xfId="20" xr:uid="{651A6F46-EE77-4929-9666-8A3FA9EE71A1}"/>
+    <cellStyle name="60% - Énfasis6 2" xfId="21" xr:uid="{0F2F01F4-49B5-45B8-A384-26BBAE7D7D5D}"/>
+    <cellStyle name="Accent1 2" xfId="81" xr:uid="{D0F1E1E0-732B-40C2-B375-0713094B44EC}"/>
+    <cellStyle name="Accent2 2" xfId="82" xr:uid="{BD150256-4451-45D8-95C4-C642DA995DF3}"/>
+    <cellStyle name="Accent3 2" xfId="83" xr:uid="{FE6C6565-2662-46B1-A4C6-4FF7F5C715AC}"/>
+    <cellStyle name="Accent4 2" xfId="84" xr:uid="{404FF05A-DBFB-46F9-87A3-2CDC673AF2DE}"/>
+    <cellStyle name="Accent5 2" xfId="85" xr:uid="{45E27B1B-DAC6-4102-98E0-126B2DCA8AB0}"/>
+    <cellStyle name="Accent6 2" xfId="86" xr:uid="{A266E0BA-BEE3-48C2-B017-0DFFFAADCE43}"/>
+    <cellStyle name="Bad 2" xfId="89" xr:uid="{E364A434-4AF1-43A6-B5ED-1ECED9598083}"/>
+    <cellStyle name="Bueno 2" xfId="22" xr:uid="{3C36D15A-3367-4283-88F3-D80451CF979B}"/>
+    <cellStyle name="Calculation 2" xfId="77" xr:uid="{E0373B42-AEAC-4DDD-BA21-51BFCD3A3A94}"/>
+    <cellStyle name="Cálculo 2" xfId="105" xr:uid="{F53B2CC4-B833-4105-A3E4-F36F12CC93EE}"/>
+    <cellStyle name="Cálculo 3" xfId="23" xr:uid="{05AA6D73-4CAD-456D-8A0B-80FCE0BCF575}"/>
+    <cellStyle name="Celda de comprobación 2" xfId="24" xr:uid="{0BD31144-4021-4D5A-A445-13BBE318D424}"/>
+    <cellStyle name="Celda vinculada 2" xfId="25" xr:uid="{F128E79B-7FE2-4DE9-AC91-23FBEB30C5E1}"/>
+    <cellStyle name="Check Cell 2" xfId="78" xr:uid="{06DE9027-5C26-42C2-8819-6B45CA1412ED}"/>
+    <cellStyle name="Comma 2" xfId="90" xr:uid="{486CA74A-3A31-4555-9005-77237B443C69}"/>
+    <cellStyle name="Currency 2" xfId="102" xr:uid="{F9FA81D4-3E90-48A6-A417-2B2AED6C0F0B}"/>
+    <cellStyle name="Encabezado 4 2" xfId="26" xr:uid="{D50D2A32-D20A-4541-BDA2-6C66845D025F}"/>
+    <cellStyle name="Énfasis1 2" xfId="27" xr:uid="{BAE87507-303C-4842-962C-AECCD493BB20}"/>
+    <cellStyle name="Énfasis2 2" xfId="28" xr:uid="{5DC21769-14BB-4360-ADA0-2C487CA634F3}"/>
+    <cellStyle name="Énfasis3 2" xfId="29" xr:uid="{EB0479BA-F658-4EB2-A61B-F8D71F1674AB}"/>
+    <cellStyle name="Énfasis4 2" xfId="30" xr:uid="{8ADDD9BB-AC01-4FBF-8C46-60811079FD4E}"/>
+    <cellStyle name="Énfasis5 2" xfId="31" xr:uid="{6FF0A1B9-EE86-45E1-8FBD-F133BCD1ED65}"/>
+    <cellStyle name="Énfasis6 2" xfId="32" xr:uid="{E0A8C9E9-D2FF-40C8-ADA3-E836E8918D15}"/>
+    <cellStyle name="Entrada 2" xfId="106" xr:uid="{982878AA-85FB-4436-96D5-E70021E6B6AF}"/>
+    <cellStyle name="Entrada 3" xfId="33" xr:uid="{261AC8E5-C338-4687-8536-3BCE74CDB789}"/>
+    <cellStyle name="Explanatory Text 2" xfId="97" xr:uid="{0B4B781A-369B-4C91-939E-33C967667252}"/>
+    <cellStyle name="Good 2" xfId="76" xr:uid="{E3485085-EEF7-4359-A3B0-C761D47AEFFE}"/>
+    <cellStyle name="Heading 2 2" xfId="99" xr:uid="{79B4CE71-E5D3-4256-900E-674CF8162ACC}"/>
+    <cellStyle name="Heading 3 2" xfId="100" xr:uid="{C63EF4B3-3D75-43C7-8D73-7983A77557F6}"/>
+    <cellStyle name="Heading 4 2" xfId="80" xr:uid="{24667BAE-8861-49E2-8C9B-7AEEB2366675}"/>
+    <cellStyle name="Hipervínculo 2" xfId="123" xr:uid="{63DB154B-4ED2-4125-AA2F-69D9B48B7D9A}"/>
+    <cellStyle name="Hyperlink 2" xfId="88" xr:uid="{1508E8F8-8B21-4866-B989-7BF27ABE8565}"/>
+    <cellStyle name="Incorrecto 2" xfId="34" xr:uid="{237CAA02-861E-4BD0-BE60-064EADAD4E6B}"/>
+    <cellStyle name="Input 2" xfId="87" xr:uid="{74B6E74F-217F-4EE8-BEEF-158F0841F332}"/>
+    <cellStyle name="Linked Cell 2" xfId="79" xr:uid="{4ED1D6BE-0C0C-47D8-BC34-0E8C01A1ABBA}"/>
+    <cellStyle name="Millares 10" xfId="35" xr:uid="{7CFCDCD3-3A2D-4FE9-92AA-3D6878EAEBC3}"/>
+    <cellStyle name="Millares 2" xfId="49" xr:uid="{AE39057A-B867-4CD9-9D01-A5CE0BA5A22B}"/>
+    <cellStyle name="Millares 2 2" xfId="116" xr:uid="{5D557DB5-BF24-4E2C-8601-2F4309EBC7F5}"/>
+    <cellStyle name="Millares 2 3" xfId="114" xr:uid="{91C0CE7A-395D-4E05-9A15-789E9B92827B}"/>
+    <cellStyle name="Millares 2 4" xfId="104" xr:uid="{2281AEB3-262D-41E9-B2BC-EC15FD96CBD7}"/>
+    <cellStyle name="Millares 3" xfId="53" xr:uid="{EDBF2A9B-8243-481E-AEF8-4623DFAA6F99}"/>
+    <cellStyle name="Millares 3 2" xfId="107" xr:uid="{37036D7B-2D23-4A87-AAFF-EA15B485A640}"/>
+    <cellStyle name="Millares 4" xfId="36" xr:uid="{F5E88F51-C804-47B6-9E14-F868A41E7EB0}"/>
+    <cellStyle name="Millares 4 2" xfId="108" xr:uid="{2BAD2CDA-C19D-49C9-8E1F-8F2148A2C09A}"/>
+    <cellStyle name="Millares 4 3" xfId="91" xr:uid="{0B092DAF-288F-4E2E-AEC6-766CC6BE5443}"/>
+    <cellStyle name="Millares 5" xfId="56" xr:uid="{0F62C9E1-19AD-4351-947E-6F487AF0186F}"/>
+    <cellStyle name="Millares 6" xfId="119" xr:uid="{E7DC2F5F-F892-44EE-B784-BBFA2DCCFCD3}"/>
+    <cellStyle name="Millares 7" xfId="122" xr:uid="{E9CBF361-6D0F-4A7D-8223-B1E9C0D41156}"/>
+    <cellStyle name="Millares 8" xfId="125" xr:uid="{325580E5-8F49-4C6C-9F28-4DF00238E333}"/>
+    <cellStyle name="Millares 9" xfId="127" xr:uid="{CE387EB4-D34A-41E4-ACF7-6DA3CA331DE9}"/>
+    <cellStyle name="Moneda 2" xfId="112" xr:uid="{99233A02-8FBD-4703-B958-50BC98104780}"/>
+    <cellStyle name="Moneda 3" xfId="117" xr:uid="{AF017C5A-6272-4599-87CB-48A70D8F93DE}"/>
+    <cellStyle name="Neutral 2" xfId="92" xr:uid="{642A6C8D-13E7-46D1-8B64-F05D8C543D9D}"/>
+    <cellStyle name="Neutral 3" xfId="37" xr:uid="{A10B5742-CB53-401A-B51B-D5C9A4AFA4DE}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 10" xfId="3" xr:uid="{18F01A84-DEF1-42A9-9F42-2A3809A18C8C}"/>
+    <cellStyle name="Normal 2" xfId="38" xr:uid="{91D2D6BE-1BA4-41F0-BE7A-1AB36213A74A}"/>
     <cellStyle name="Normal 2 2" xfId="1" xr:uid="{3CC4EE08-77E3-46F7-8611-B19D7805BDAC}"/>
+    <cellStyle name="Normal 2 2 2" xfId="52" xr:uid="{3ECB9AC2-8C59-4650-914A-947AAA96B8FC}"/>
+    <cellStyle name="Normal 2 2 3" xfId="39" xr:uid="{EED9357F-300A-4BBE-871D-0A7E80CDB570}"/>
+    <cellStyle name="Normal 2 3" xfId="50" xr:uid="{07CE8E63-8839-4072-9C7A-A2E6F3EA5735}"/>
+    <cellStyle name="Normal 3" xfId="48" xr:uid="{680E0366-BD00-48E0-9952-0357FF7D8D46}"/>
     <cellStyle name="Normal 3 2" xfId="2" xr:uid="{DD044FA2-1ECC-4218-8B9B-409C0866FBE2}"/>
+    <cellStyle name="Normal 3 2 2" xfId="115" xr:uid="{DA1889E7-1E93-4570-944A-C15199832B06}"/>
+    <cellStyle name="Normal 3 3" xfId="113" xr:uid="{644A8DBC-800E-4755-AAC6-17E0A3E13560}"/>
+    <cellStyle name="Normal 3 4" xfId="103" xr:uid="{FE238359-8948-41DD-BD76-E7B66DC950B7}"/>
+    <cellStyle name="Normal 4" xfId="54" xr:uid="{F4444F06-7609-457D-A1C3-2ED220883054}"/>
+    <cellStyle name="Normal 4 2" xfId="57" xr:uid="{E42AD95D-48F7-4529-87F9-D11B9E406A89}"/>
+    <cellStyle name="Normal 5" xfId="55" xr:uid="{B005885D-A7B6-4E21-BB04-E0535E57C092}"/>
+    <cellStyle name="Normal 6" xfId="118" xr:uid="{3737756C-F02D-45C4-B6E2-58232E6A21C2}"/>
+    <cellStyle name="Normal 7" xfId="121" xr:uid="{8FF9390D-590D-462D-8922-F69356A1D748}"/>
+    <cellStyle name="Normal 7 2" xfId="128" xr:uid="{EE2A99E8-909A-4C27-A62E-428FD2C7BA96}"/>
+    <cellStyle name="Normal 8" xfId="124" xr:uid="{1C0743F5-F330-4E29-81CC-86368966142B}"/>
+    <cellStyle name="Normal 9" xfId="126" xr:uid="{B2D07FF4-8222-4B72-A392-F45A98C11FBC}"/>
+    <cellStyle name="Notas 2" xfId="109" xr:uid="{27A49CAE-D26D-4231-977D-09DC8BD2A6A0}"/>
+    <cellStyle name="Notas 3" xfId="40" xr:uid="{092EF42E-18DD-4DE9-BE05-D63D3F73AF5E}"/>
+    <cellStyle name="Note 2" xfId="93" xr:uid="{A50D8134-861B-451C-8F52-012F4128E48A}"/>
+    <cellStyle name="Output 2" xfId="95" xr:uid="{F0A1323A-198C-433F-8E4C-7452268465E0}"/>
+    <cellStyle name="Percent 2" xfId="94" xr:uid="{FBE40E5C-C960-4626-AE55-909FC0117404}"/>
+    <cellStyle name="Porcentaje 2" xfId="51" xr:uid="{35195DDE-2D2F-4C9B-A65F-90B1A8FAAD52}"/>
+    <cellStyle name="Porcentaje 3" xfId="120" xr:uid="{75149189-6ED9-4E8E-8420-FF2C60D36985}"/>
+    <cellStyle name="Salida 2" xfId="110" xr:uid="{E62286A8-4848-46FB-A377-960A24258A46}"/>
+    <cellStyle name="Salida 3" xfId="41" xr:uid="{3C901970-5646-41D7-89B5-388499D92865}"/>
+    <cellStyle name="Texto de advertencia 2" xfId="42" xr:uid="{E0E22F31-CFBB-43BD-B3F7-EE20A8E5F17B}"/>
+    <cellStyle name="Texto explicativo 2" xfId="43" xr:uid="{279DCD16-6D6D-48E6-B6C8-8972E2BE4592}"/>
+    <cellStyle name="Title 2" xfId="98" xr:uid="{E985464F-2235-4D48-9549-138A22A09AC0}"/>
+    <cellStyle name="Título 2 2" xfId="45" xr:uid="{0697EECA-24A4-42EB-B280-D463D53F9CAF}"/>
+    <cellStyle name="Título 3 2" xfId="46" xr:uid="{1AF1172E-2F18-4B51-B8BC-121B9ABFFCE4}"/>
+    <cellStyle name="Título 4" xfId="44" xr:uid="{52D18B36-4761-431B-82BC-F3B1EB0D4252}"/>
+    <cellStyle name="Total 2" xfId="111" xr:uid="{1BC259B0-76F8-4D43-878C-00A7A889B3BC}"/>
+    <cellStyle name="Total 3" xfId="101" xr:uid="{BC3847F6-7CBC-4AAD-9923-FD5E521A151B}"/>
+    <cellStyle name="Total 4" xfId="47" xr:uid="{CCC78A32-2F3E-415A-BF58-A7FF6AF03139}"/>
+    <cellStyle name="Warning Text 2" xfId="96" xr:uid="{1DD8535B-BB51-45FF-810E-369012326172}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -532,84 +1437,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF04176-3630-44AA-BE48-6C305470BD30}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2"/>
+      <c r="C2" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6.1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>6.9</v>
+      </c>
+      <c r="F2" s="3">
+        <v>93.1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2018</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0.8</v>
-      </c>
-      <c r="D3" s="6">
-        <v>6.1</v>
-      </c>
-      <c r="E3" s="6">
-        <v>6.9</v>
-      </c>
-      <c r="F3" s="6">
-        <v>93.1</v>
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D3" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="E3" s="4">
+        <v>9</v>
+      </c>
+      <c r="F3" s="4">
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="7">
-        <v>0.6</v>
-      </c>
-      <c r="D4" s="7">
-        <v>8.4</v>
-      </c>
-      <c r="E4" s="7">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7">
-        <v>91</v>
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E4" s="5">
+        <v>10.4</v>
+      </c>
+      <c r="F4" s="5">
+        <v>89.6</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -617,39 +1535,39 @@
         <v>2019</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8">
-        <v>1.2</v>
-      </c>
-      <c r="D5" s="8">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D5" s="6">
         <v>10.4</v>
       </c>
-      <c r="F5" s="8">
-        <v>89.6</v>
+      <c r="E5" s="6">
+        <v>11.3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>88.7</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.9</v>
-      </c>
-      <c r="D6" s="9">
-        <v>10.4</v>
-      </c>
-      <c r="E6" s="9">
-        <v>11.3</v>
-      </c>
-      <c r="F6" s="9">
-        <v>88.7</v>
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="D6" s="6">
+        <v>10.1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>11.4</v>
+      </c>
+      <c r="F6" s="6">
+        <v>88.6</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -657,80 +1575,80 @@
         <v>2020</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="9">
-        <v>1.3</v>
-      </c>
-      <c r="D7" s="9">
-        <v>10.1</v>
-      </c>
-      <c r="E7" s="9">
-        <v>11.4</v>
-      </c>
-      <c r="F7" s="9">
-        <v>88.6</v>
+      <c r="D7" s="6">
+        <v>10.9</v>
+      </c>
+      <c r="E7" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="F7" s="6">
+        <v>88.1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="7">
         <v>1</v>
       </c>
-      <c r="D8" s="9">
-        <v>10.9</v>
-      </c>
-      <c r="E8" s="9">
-        <v>11.9</v>
-      </c>
-      <c r="F8" s="9">
-        <v>88.1</v>
-      </c>
+      <c r="C8" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="E8" s="6">
+        <v>13.8</v>
+      </c>
+      <c r="F8" s="6">
+        <v>86.2</v>
+      </c>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="7">
-        <v>2.1</v>
-      </c>
-      <c r="D9" s="9">
-        <v>11.7</v>
-      </c>
-      <c r="E9" s="9">
-        <v>13.8</v>
-      </c>
-      <c r="F9" s="9">
-        <v>86.2</v>
-      </c>
-      <c r="G9" s="10"/>
+        <v>0.7</v>
+      </c>
+      <c r="D9" s="8">
+        <v>12.3</v>
+      </c>
+      <c r="E9" s="7">
+        <v>13</v>
+      </c>
+      <c r="F9" s="7">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="11">
-        <v>0.7</v>
-      </c>
-      <c r="D10" s="12">
-        <v>12.3</v>
-      </c>
-      <c r="E10" s="11">
-        <v>13</v>
-      </c>
-      <c r="F10" s="11">
-        <v>87</v>
+      <c r="E10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -738,39 +1656,39 @@
         <v>2022</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="F11" s="9" t="s">
         <v>8</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>14</v>
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="D12" s="9">
+        <v>11.6</v>
+      </c>
+      <c r="E12" s="9">
+        <v>13.2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>86.8</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -778,46 +1696,632 @@
         <v>2023</v>
       </c>
       <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" s="13">
-        <v>1.6</v>
-      </c>
-      <c r="D13" s="13">
-        <v>11.6</v>
-      </c>
-      <c r="E13" s="13">
-        <v>13.2</v>
-      </c>
-      <c r="F13" s="13">
-        <v>86.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2.6</v>
+      </c>
+      <c r="D13" s="10">
+        <v>15</v>
+      </c>
+      <c r="E13" s="9">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F13" s="9">
+        <v>82.4</v>
+      </c>
+      <c r="G13" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F94E8A1-5AB4-48B6-9F9A-BBCFAE47F327}">
+  <dimension ref="A2:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="18"/>
+      <c r="B2" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="36"/>
+      <c r="B4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="37"/>
+      <c r="B5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="26">
+        <v>2013</v>
+      </c>
+      <c r="B6" s="27">
+        <v>1709181</v>
+      </c>
+      <c r="C6" s="28">
+        <v>657183.08333333337</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1051997.9166666667</v>
+      </c>
+      <c r="E6" s="27">
+        <v>169685</v>
+      </c>
+      <c r="F6" s="28">
+        <v>65076.25</v>
+      </c>
+      <c r="G6" s="29">
+        <v>104608.75</v>
+      </c>
+      <c r="H6" s="27">
+        <v>2597616.9166666665</v>
+      </c>
+      <c r="I6" s="28">
+        <v>1848370.5</v>
+      </c>
+      <c r="J6" s="29">
+        <v>749246.41666666663</v>
+      </c>
+      <c r="K6" s="27">
+        <v>1326849</v>
+      </c>
+      <c r="L6" s="28">
+        <v>126660.08333333333</v>
+      </c>
+      <c r="M6" s="30">
+        <v>1200188.9166666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
+        <v>2014</v>
+      </c>
+      <c r="B7" s="27">
+        <v>1740121.4166666665</v>
+      </c>
+      <c r="C7" s="28">
+        <v>687278.16666666663</v>
+      </c>
+      <c r="D7" s="29">
+        <v>1052843.25</v>
+      </c>
+      <c r="E7" s="27">
+        <v>179720.16666666666</v>
+      </c>
+      <c r="F7" s="28">
+        <v>72173.083333333328</v>
+      </c>
+      <c r="G7" s="29">
+        <v>107547.08333333333</v>
+      </c>
+      <c r="H7" s="27">
+        <v>2602068.75</v>
+      </c>
+      <c r="I7" s="28">
+        <v>1851739.9166666667</v>
+      </c>
+      <c r="J7" s="29">
+        <v>750328.83333333337</v>
+      </c>
+      <c r="K7" s="27">
+        <v>1331878.1666666665</v>
+      </c>
+      <c r="L7" s="28">
+        <v>143760.58333333334</v>
+      </c>
+      <c r="M7" s="30">
+        <v>1188117.5833333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="26">
+        <v>2015</v>
+      </c>
+      <c r="B8" s="27">
+        <v>1832417.5</v>
+      </c>
+      <c r="C8" s="28">
+        <v>779147.25</v>
+      </c>
+      <c r="D8" s="29">
+        <v>1053270.25</v>
+      </c>
+      <c r="E8" s="27">
+        <v>188895.83333333331</v>
+      </c>
+      <c r="F8" s="28">
+        <v>79710</v>
+      </c>
+      <c r="G8" s="29">
+        <v>109185.83333333333</v>
+      </c>
+      <c r="H8" s="27">
+        <v>2972537.25</v>
+      </c>
+      <c r="I8" s="28">
+        <v>2221624.9166666665</v>
+      </c>
+      <c r="J8" s="29">
+        <v>750912.33333333337</v>
+      </c>
+      <c r="K8" s="27">
+        <v>1335061.0833333333</v>
+      </c>
+      <c r="L8" s="28">
+        <v>160828</v>
+      </c>
+      <c r="M8" s="30">
+        <v>1174233.0833333333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="26">
+        <v>2016</v>
+      </c>
+      <c r="B9" s="27">
+        <v>1932691.5833333335</v>
+      </c>
+      <c r="C9" s="28">
+        <v>873333.83333333337</v>
+      </c>
+      <c r="D9" s="29">
+        <v>1059357.75</v>
+      </c>
+      <c r="E9" s="27">
+        <v>199984</v>
+      </c>
+      <c r="F9" s="28">
+        <v>90786.333333333328</v>
+      </c>
+      <c r="G9" s="29">
+        <v>109197.66666666667</v>
+      </c>
+      <c r="H9" s="27">
+        <v>3169955.5</v>
+      </c>
+      <c r="I9" s="28">
+        <v>2419808.5833333335</v>
+      </c>
+      <c r="J9" s="29">
+        <v>750146.91666666663</v>
+      </c>
+      <c r="K9" s="27">
+        <v>1344458.4166666667</v>
+      </c>
+      <c r="L9" s="28">
+        <v>184805.25</v>
+      </c>
+      <c r="M9" s="30">
+        <v>1159653.1666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
+        <v>2017</v>
+      </c>
+      <c r="B10" s="27">
+        <v>2004772.6666666665</v>
+      </c>
+      <c r="C10" s="28">
+        <v>926038.66666666663</v>
+      </c>
+      <c r="D10" s="29">
+        <v>1078734</v>
+      </c>
+      <c r="E10" s="27">
+        <v>214513.91666666666</v>
+      </c>
+      <c r="F10" s="28">
+        <v>106108.58333333333</v>
+      </c>
+      <c r="G10" s="29">
+        <v>108405.33333333333</v>
+      </c>
+      <c r="H10" s="27">
+        <v>3240408.9166666665</v>
+      </c>
+      <c r="I10" s="28">
+        <v>2484153.5</v>
+      </c>
+      <c r="J10" s="29">
+        <v>756255.41666666663</v>
+      </c>
+      <c r="K10" s="27">
+        <v>1358485.1666666665</v>
+      </c>
+      <c r="L10" s="28">
+        <v>212666.58333333334</v>
+      </c>
+      <c r="M10" s="30">
+        <v>1145818.5833333333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="32">
+        <v>2007875.0833333333</v>
+      </c>
+      <c r="C11" s="33">
+        <v>915900.5</v>
+      </c>
+      <c r="D11" s="34">
+        <v>1091974.5833333333</v>
+      </c>
+      <c r="E11" s="32">
+        <v>225157.41666666666</v>
+      </c>
+      <c r="F11" s="33">
+        <v>120800.08333333333</v>
+      </c>
+      <c r="G11" s="34">
+        <v>104357.33333333333</v>
+      </c>
+      <c r="H11" s="32">
+        <v>3258062</v>
+      </c>
+      <c r="I11" s="33">
+        <v>2498008.5</v>
+      </c>
+      <c r="J11" s="34">
+        <v>760053.5</v>
+      </c>
+      <c r="K11" s="32">
+        <v>1363341.9166666667</v>
+      </c>
+      <c r="L11" s="33">
+        <v>234946.25</v>
+      </c>
+      <c r="M11" s="35">
+        <v>1128395.6666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>2019</v>
+      </c>
+      <c r="B12" s="32">
+        <v>1996221.5</v>
+      </c>
+      <c r="C12" s="34">
+        <v>902729</v>
+      </c>
+      <c r="D12" s="34">
+        <v>1093492.5</v>
+      </c>
+      <c r="E12" s="32">
+        <v>233012.33333333334</v>
+      </c>
+      <c r="F12" s="34">
+        <v>133304.83333333334</v>
+      </c>
+      <c r="G12" s="34">
+        <v>99707.5</v>
+      </c>
+      <c r="H12" s="32">
+        <v>3270614.083333333</v>
+      </c>
+      <c r="I12" s="34">
+        <v>2514669.9166666665</v>
+      </c>
+      <c r="J12" s="34">
+        <v>755944.16666666663</v>
+      </c>
+      <c r="K12" s="32">
+        <v>1363162.0833333333</v>
+      </c>
+      <c r="L12" s="34">
+        <v>254503.25</v>
+      </c>
+      <c r="M12" s="35">
+        <v>1108658.8333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>2020</v>
+      </c>
+      <c r="B13" s="32">
+        <v>1975433.6666666665</v>
+      </c>
+      <c r="C13" s="34">
+        <v>884029.16666666663</v>
+      </c>
+      <c r="D13" s="34">
+        <v>1091404.5</v>
+      </c>
+      <c r="E13" s="32">
+        <v>239877</v>
+      </c>
+      <c r="F13" s="34">
+        <v>140305.75</v>
+      </c>
+      <c r="G13" s="34">
+        <v>99571.25</v>
+      </c>
+      <c r="H13" s="32">
+        <v>3262124.9166666665</v>
+      </c>
+      <c r="I13" s="34">
+        <v>2510356.25</v>
+      </c>
+      <c r="J13" s="34">
+        <v>751768.66666666663</v>
+      </c>
+      <c r="K13" s="32">
+        <v>1363641.0833333335</v>
+      </c>
+      <c r="L13" s="34">
+        <v>269795.16666666669</v>
+      </c>
+      <c r="M13" s="35">
+        <v>1093845.9166666667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="32">
+        <v>1931837.8333333335</v>
+      </c>
+      <c r="C14" s="34">
+        <v>856765.66666666663</v>
+      </c>
+      <c r="D14" s="34">
+        <v>1075072.1666666667</v>
+      </c>
+      <c r="E14" s="32">
+        <v>245631.83333333334</v>
+      </c>
+      <c r="F14" s="34">
+        <v>146558.08333333334</v>
+      </c>
+      <c r="G14" s="34">
+        <v>99073.75</v>
+      </c>
+      <c r="H14" s="32">
+        <v>3231713.5833333335</v>
+      </c>
+      <c r="I14" s="34">
+        <v>2490583.5</v>
+      </c>
+      <c r="J14" s="34">
+        <v>741130.08333333337</v>
+      </c>
+      <c r="K14" s="32">
+        <v>1364448.1666666665</v>
+      </c>
+      <c r="L14" s="34">
+        <v>286931.83333333331</v>
+      </c>
+      <c r="M14" s="35">
+        <v>1077516.3333333333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
+        <v>2022</v>
+      </c>
+      <c r="B15" s="32">
+        <v>1920294.5</v>
+      </c>
+      <c r="C15" s="34">
+        <v>835257.33333333337</v>
+      </c>
+      <c r="D15" s="34">
+        <v>1085037.1666666667</v>
+      </c>
+      <c r="E15" s="32">
+        <v>257329.5</v>
+      </c>
+      <c r="F15" s="34">
+        <v>156710.58333333334</v>
+      </c>
+      <c r="G15" s="34">
+        <v>100618.91666666667</v>
+      </c>
+      <c r="H15" s="32">
+        <v>3332275.75</v>
+      </c>
+      <c r="I15" s="34">
+        <v>2590449.4166666665</v>
+      </c>
+      <c r="J15" s="34">
+        <v>741826.33333333337</v>
+      </c>
+      <c r="K15" s="32">
+        <v>1374283.8333333333</v>
+      </c>
+      <c r="L15" s="34">
+        <v>309309.5</v>
+      </c>
+      <c r="M15" s="35">
+        <v>1064974.3333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
         <v>2023</v>
       </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-      <c r="C14" s="13">
-        <v>2.6</v>
-      </c>
-      <c r="D14" s="14">
-        <v>15</v>
-      </c>
-      <c r="E14" s="13">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="F14" s="13">
-        <v>82.4</v>
-      </c>
-      <c r="G14" s="10"/>
+      <c r="B16" s="32">
+        <v>1938934.6666666665</v>
+      </c>
+      <c r="C16" s="34">
+        <v>850511.83333333337</v>
+      </c>
+      <c r="D16" s="34">
+        <v>1088422.8333333333</v>
+      </c>
+      <c r="E16" s="32">
+        <v>268077</v>
+      </c>
+      <c r="F16" s="34">
+        <v>165720.33333333334</v>
+      </c>
+      <c r="G16" s="34">
+        <v>102356.66666666667</v>
+      </c>
+      <c r="H16" s="32">
+        <v>3422354</v>
+      </c>
+      <c r="I16" s="34">
+        <v>2680910.25</v>
+      </c>
+      <c r="J16" s="34">
+        <v>741443.75</v>
+      </c>
+      <c r="K16" s="32">
+        <v>1374908.0833333335</v>
+      </c>
+      <c r="L16" s="34">
+        <v>326857.25</v>
+      </c>
+      <c r="M16" s="35">
+        <v>1048050.8333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>45444</v>
+      </c>
+      <c r="B17" s="32">
+        <v>2063279</v>
+      </c>
+      <c r="C17" s="34">
+        <v>965637</v>
+      </c>
+      <c r="D17" s="34">
+        <v>1097642</v>
+      </c>
+      <c r="E17" s="32">
+        <v>275090</v>
+      </c>
+      <c r="F17" s="34">
+        <v>171699</v>
+      </c>
+      <c r="G17" s="34">
+        <v>103391</v>
+      </c>
+      <c r="H17" s="32">
+        <v>3561762</v>
+      </c>
+      <c r="I17" s="34">
+        <v>2817236</v>
+      </c>
+      <c r="J17" s="34">
+        <v>744526</v>
+      </c>
+      <c r="K17" s="32">
+        <v>1370988</v>
+      </c>
+      <c r="L17" s="34">
+        <v>338633</v>
+      </c>
+      <c r="M17" s="35">
+        <v>1032355</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="F1:F2"/>
+  <mergeCells count="5">
+    <mergeCell ref="H3:M3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/datos.xlsx
+++ b/data/datos.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\indicadores-socioeconomicos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21AE0692-BCA4-48A5-A89E-B968761EE8F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09007567-76D5-458E-B905-137102D0402F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1260" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{AF598439-62DC-4F7D-BE55-398D701C39E6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AF598439-62DC-4F7D-BE55-398D701C39E6}"/>
   </bookViews>
   <sheets>
     <sheet name="pobreza" sheetId="1" r:id="rId1"/>
     <sheet name="bess-1" sheetId="2" r:id="rId2"/>
+    <sheet name="estrato" sheetId="7" r:id="rId3"/>
+    <sheet name="ingresos" sheetId="3" r:id="rId4"/>
+    <sheet name="salud" sheetId="4" r:id="rId5"/>
+    <sheet name="jubilacion" sheetId="5" r:id="rId6"/>
+    <sheet name="salud2" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="71">
   <si>
     <t>semestre</t>
   </si>
@@ -48,24 +53,12 @@
     <t>10,1</t>
   </si>
   <si>
-    <t>12,1</t>
-  </si>
-  <si>
-    <t>87,9</t>
-  </si>
-  <si>
     <t>1,7</t>
   </si>
   <si>
     <t>12,8</t>
   </si>
   <si>
-    <t>14,5</t>
-  </si>
-  <si>
-    <t>85,5</t>
-  </si>
-  <si>
     <t>anio</t>
   </si>
   <si>
@@ -81,73 +74,202 @@
     <t>pobres_no_indigentes</t>
   </si>
   <si>
-    <t>Total de beneficios liquidados</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Año </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(2)</t>
-    </r>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>Femenino</t>
-  </si>
-  <si>
-    <t>Jubilaciones</t>
-  </si>
-  <si>
-    <r>
-      <t>Pensiones</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(3)</t>
-    </r>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
-    <t>Con Moratoria</t>
-  </si>
-  <si>
-    <t>Sin Moratoria</t>
+    <t>ano</t>
+  </si>
+  <si>
+    <t>total_m</t>
+  </si>
+  <si>
+    <t>con_moratoria_m</t>
+  </si>
+  <si>
+    <t>sin_moratoria_m</t>
+  </si>
+  <si>
+    <t>total_v</t>
+  </si>
+  <si>
+    <t>con_moratoria_v</t>
+  </si>
+  <si>
+    <t>sin_moratoria_v</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>CH04</t>
+  </si>
+  <si>
+    <t>poblacion60ymas</t>
+  </si>
+  <si>
+    <t>pobl60_IL</t>
+  </si>
+  <si>
+    <t>pobl60_JP</t>
+  </si>
+  <si>
+    <t>pobl60_OI</t>
+  </si>
+  <si>
+    <t>Ingresos laborales</t>
+  </si>
+  <si>
+    <t>Jubilación o pensión</t>
+  </si>
+  <si>
+    <t>Otros ingresos no laborales</t>
+  </si>
+  <si>
+    <t>CV_Ingresos laborales</t>
+  </si>
+  <si>
+    <t>CV_Jubilación o pensión</t>
+  </si>
+  <si>
+    <t>CV_Otros ingresos no laborales</t>
+  </si>
+  <si>
+    <t>Varones</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Mujeres</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>varones</t>
+  </si>
+  <si>
+    <t>mujeres</t>
+  </si>
+  <si>
+    <t>porcentaje</t>
+  </si>
+  <si>
+    <t>absoluto</t>
+  </si>
+  <si>
+    <t>cobertura</t>
+  </si>
+  <si>
+    <t>obra social</t>
+  </si>
+  <si>
+    <t>programas</t>
+  </si>
+  <si>
+    <t>sistema publico</t>
+  </si>
+  <si>
+    <t>60-64</t>
+  </si>
+  <si>
+    <t>65-69</t>
+  </si>
+  <si>
+    <t>70-74</t>
+  </si>
+  <si>
+    <t>75-79</t>
+  </si>
+  <si>
+    <t>80-84</t>
+  </si>
+  <si>
+    <t>85-89</t>
+  </si>
+  <si>
+    <t>90-94</t>
+  </si>
+  <si>
+    <t>95-99</t>
+  </si>
+  <si>
+    <t>100 y más</t>
+  </si>
+  <si>
+    <t>poblacion_total</t>
+  </si>
+  <si>
+    <t>grupo_edad</t>
+  </si>
+  <si>
+    <t>obra_social</t>
+  </si>
+  <si>
+    <t>plan_estatal</t>
+  </si>
+  <si>
+    <t>no_tiene</t>
+  </si>
+  <si>
+    <t>60 a 74 años</t>
+  </si>
+  <si>
+    <t>75 años y más</t>
+  </si>
+  <si>
+    <t>ANO4</t>
+  </si>
+  <si>
+    <t>Grupo</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Poblacion</t>
+  </si>
+  <si>
+    <t>Unipersonal</t>
+  </si>
+  <si>
+    <t>Unigeneracional</t>
+  </si>
+  <si>
+    <t>Multigeneracional</t>
+  </si>
+  <si>
+    <t>Sin_PM</t>
+  </si>
+  <si>
+    <t>hogares unipersonales</t>
+  </si>
+  <si>
+    <t>hogares unigeneracionales</t>
+  </si>
+  <si>
+    <t>hogares multigeneracionales</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;\ * #,##0.00_ ;_ &quot;$&quot;\ * \-#,##0.00_ ;_ &quot;$&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -318,21 +440,24 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color rgb="FF0070C0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="28">
+  <fills count="27">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,12 +576,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
@@ -474,7 +593,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -599,17 +718,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom style="dotted">
-        <color rgb="FF00B0F0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF0070C0"/>
       </left>
@@ -684,35 +792,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF0070C0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF0070C0"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0070C0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="dashed">
         <color rgb="FF66CCFF"/>
       </top>
@@ -771,7 +850,7 @@
     <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
@@ -785,14 +864,14 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
-    <xf numFmtId="168" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -829,8 +908,8 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -841,42 +920,39 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -900,81 +976,80 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="3" fillId="26" borderId="22" xfId="52" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="25" borderId="18" xfId="52" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="24" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="24" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="24" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="25" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="25" fillId="26" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="25" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="13" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="25" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="25" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="25" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="25" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="25" fillId="27" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="25" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="19" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="129">
     <cellStyle name="20% - Accent1 2" xfId="58" xr:uid="{4D1EAED0-96CA-441D-9C13-E5B4EEB66841}"/>
@@ -1437,37 +1512,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF04176-3630-44AA-BE48-6C305470BD30}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6.44140625" customWidth="1"/>
     <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="12"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>11</v>
+      <c r="E1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -1477,16 +1553,16 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0.8</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="2">
         <v>6.1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>6.9</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>93.1</v>
       </c>
     </row>
@@ -1497,16 +1573,16 @@
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>0.6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>8.4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>9</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>91</v>
       </c>
     </row>
@@ -1517,16 +1593,16 @@
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>1.2</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="35">
         <v>10.4</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>89.6</v>
       </c>
     </row>
@@ -1537,16 +1613,16 @@
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>0.9</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>10.4</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="3">
         <v>11.3</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <v>88.7</v>
       </c>
     </row>
@@ -1557,16 +1633,16 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1.3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>10.1</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>11.4</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <v>88.6</v>
       </c>
     </row>
@@ -1577,16 +1653,16 @@
       <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>10.9</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <v>11.9</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>88.1</v>
       </c>
     </row>
@@ -1597,19 +1673,19 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>2.1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>11.7</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>13.8</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="5">
         <v>86.2</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -1618,16 +1694,16 @@
       <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="6">
         <v>0.7</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>12.3</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="6">
         <v>13</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>87</v>
       </c>
     </row>
@@ -1638,17 +1714,17 @@
       <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>4</v>
+      <c r="E10" s="36">
+        <v>12.1</v>
+      </c>
+      <c r="F10" s="8">
+        <v>87.9</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1658,17 +1734,17 @@
       <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>8</v>
+      <c r="C11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="36">
+        <v>14.5</v>
+      </c>
+      <c r="F11" s="8">
+        <v>85.5</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1678,16 +1754,16 @@
       <c r="B12">
         <v>1</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>1.6</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>11.6</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="36">
         <v>13.2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="8">
         <v>86.8</v>
       </c>
     </row>
@@ -1698,19 +1774,22 @@
       <c r="B13">
         <v>2</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="8">
         <v>2.6</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>15</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="36">
         <v>17.600000000000001</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="8">
         <v>82.4</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="10"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E14" s="37"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1719,610 +1798,3524 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F94E8A1-5AB4-48B6-9F9A-BBCFAE47F327}">
-  <dimension ref="A2:N17"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="21.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="16">
+        <v>2013</v>
+      </c>
+      <c r="B2" s="17">
+        <v>1709181</v>
+      </c>
+      <c r="C2" s="18">
+        <v>657183.08333333337</v>
+      </c>
+      <c r="D2" s="19">
+        <v>1051997.9166666667</v>
+      </c>
+      <c r="E2" s="17">
+        <v>2597616.9166666665</v>
+      </c>
+      <c r="F2" s="18">
+        <v>1848370.5</v>
+      </c>
+      <c r="G2" s="19">
+        <v>749246.41666666663</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="16">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="17">
+        <v>1740121.4166666665</v>
+      </c>
+      <c r="C3" s="18">
+        <v>687278.16666666663</v>
+      </c>
+      <c r="D3" s="19">
+        <v>1052843.25</v>
+      </c>
+      <c r="E3" s="17">
+        <v>2602068.75</v>
+      </c>
+      <c r="F3" s="18">
+        <v>1851739.9166666667</v>
+      </c>
+      <c r="G3" s="19">
+        <v>750328.83333333337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="16">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="17">
+        <v>1832417.5</v>
+      </c>
+      <c r="C4" s="18">
+        <v>779147.25</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1053270.25</v>
+      </c>
+      <c r="E4" s="17">
+        <v>2972537.25</v>
+      </c>
+      <c r="F4" s="18">
+        <v>2221624.9166666665</v>
+      </c>
+      <c r="G4" s="19">
+        <v>750912.33333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1932691.5833333335</v>
+      </c>
+      <c r="C5" s="18">
+        <v>873333.83333333337</v>
+      </c>
+      <c r="D5" s="19">
+        <v>1059357.75</v>
+      </c>
+      <c r="E5" s="17">
+        <v>3169955.5</v>
+      </c>
+      <c r="F5" s="18">
+        <v>2419808.5833333335</v>
+      </c>
+      <c r="G5" s="19">
+        <v>750146.91666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="16">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="17">
+        <v>2004772.6666666665</v>
+      </c>
+      <c r="C6" s="18">
+        <v>926038.66666666663</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1078734</v>
+      </c>
+      <c r="E6" s="17">
+        <v>3240408.9166666665</v>
+      </c>
+      <c r="F6" s="18">
+        <v>2484153.5</v>
+      </c>
+      <c r="G6" s="19">
+        <v>756255.41666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="20">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="21">
+        <v>2007875.0833333333</v>
+      </c>
+      <c r="C7" s="22">
+        <v>915900.5</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1091974.5833333333</v>
+      </c>
+      <c r="E7" s="21">
+        <v>3258062</v>
+      </c>
+      <c r="F7" s="22">
+        <v>2498008.5</v>
+      </c>
+      <c r="G7" s="23">
+        <v>760053.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="21">
+        <v>1996221.5</v>
+      </c>
+      <c r="C8" s="23">
+        <v>902729</v>
+      </c>
+      <c r="D8" s="23">
+        <v>1093492.5</v>
+      </c>
+      <c r="E8" s="21">
+        <v>3270614.083333333</v>
+      </c>
+      <c r="F8" s="23">
+        <v>2514669.9166666665</v>
+      </c>
+      <c r="G8" s="23">
+        <v>755944.16666666663</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="20">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="21">
+        <v>1975433.6666666665</v>
+      </c>
+      <c r="C9" s="23">
+        <v>884029.16666666663</v>
+      </c>
+      <c r="D9" s="23">
+        <v>1091404.5</v>
+      </c>
+      <c r="E9" s="21">
+        <v>3262124.9166666665</v>
+      </c>
+      <c r="F9" s="23">
+        <v>2510356.25</v>
+      </c>
+      <c r="G9" s="23">
+        <v>751768.66666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="21">
+        <v>1931837.8333333335</v>
+      </c>
+      <c r="C10" s="23">
+        <v>856765.66666666663</v>
+      </c>
+      <c r="D10" s="23">
+        <v>1075072.1666666667</v>
+      </c>
+      <c r="E10" s="21">
+        <v>3231713.5833333335</v>
+      </c>
+      <c r="F10" s="23">
+        <v>2490583.5</v>
+      </c>
+      <c r="G10" s="23">
+        <v>741130.08333333337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="20">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="21">
+        <v>1920294.5</v>
+      </c>
+      <c r="C11" s="23">
+        <v>835257.33333333337</v>
+      </c>
+      <c r="D11" s="23">
+        <v>1085037.1666666667</v>
+      </c>
+      <c r="E11" s="21">
+        <v>3332275.75</v>
+      </c>
+      <c r="F11" s="23">
+        <v>2590449.4166666665</v>
+      </c>
+      <c r="G11" s="23">
+        <v>741826.33333333337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="20">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="21">
+        <v>1938934.6666666665</v>
+      </c>
+      <c r="C12" s="23">
+        <v>850511.83333333337</v>
+      </c>
+      <c r="D12" s="23">
+        <v>1088422.8333333333</v>
+      </c>
+      <c r="E12" s="21">
+        <v>3422354</v>
+      </c>
+      <c r="F12" s="23">
+        <v>2680910.25</v>
+      </c>
+      <c r="G12" s="23">
+        <v>741443.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>45444</v>
+      </c>
+      <c r="B13" s="21">
+        <v>2063279</v>
+      </c>
+      <c r="C13" s="23">
+        <v>965637</v>
+      </c>
+      <c r="D13" s="23">
+        <v>1097642</v>
+      </c>
+      <c r="E13" s="21">
+        <v>3561762</v>
+      </c>
+      <c r="F13" s="23">
+        <v>2817236</v>
+      </c>
+      <c r="G13" s="23">
+        <v>744526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{007A4407-574F-4237-9E16-A68B67AE9EBF}">
+  <dimension ref="A1:K55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="23" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2">
+        <v>2216890</v>
+      </c>
+      <c r="E2">
+        <v>300013</v>
+      </c>
+      <c r="F2">
+        <v>666935</v>
+      </c>
+      <c r="G2">
+        <v>1249942</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>13.5</v>
+      </c>
+      <c r="J2">
+        <v>30.1</v>
+      </c>
+      <c r="K2">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3">
+        <v>2707923</v>
+      </c>
+      <c r="E3">
+        <v>545494</v>
+      </c>
+      <c r="F3">
+        <v>824714</v>
+      </c>
+      <c r="G3">
+        <v>1337715</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J3">
+        <v>30.5</v>
+      </c>
+      <c r="K3">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4">
+        <v>820183</v>
+      </c>
+      <c r="E4">
+        <v>125502</v>
+      </c>
+      <c r="F4">
+        <v>386785</v>
+      </c>
+      <c r="G4">
+        <v>307896</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>15.3</v>
+      </c>
+      <c r="J4">
+        <v>47.2</v>
+      </c>
+      <c r="K4">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5">
+        <v>1399618</v>
+      </c>
+      <c r="E5">
+        <v>505927</v>
+      </c>
+      <c r="F5">
+        <v>356460</v>
+      </c>
+      <c r="G5">
+        <v>537231</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>36.1</v>
+      </c>
+      <c r="J5">
+        <v>25.5</v>
+      </c>
+      <c r="K5">
+        <v>38.4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2018</v>
+      </c>
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>4924813</v>
+      </c>
+      <c r="E6">
+        <v>845507</v>
+      </c>
+      <c r="F6">
+        <v>1491649</v>
+      </c>
+      <c r="G6">
+        <v>2587657</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>17.2</v>
+      </c>
+      <c r="J6">
+        <v>30.3</v>
+      </c>
+      <c r="K6">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2018</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>2219801</v>
+      </c>
+      <c r="E7">
+        <v>631429</v>
+      </c>
+      <c r="F7">
+        <v>743245</v>
+      </c>
+      <c r="G7">
+        <v>845127</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>28.4</v>
+      </c>
+      <c r="J7">
+        <v>33.5</v>
+      </c>
+      <c r="K7">
+        <v>38.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2018</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8">
+        <v>3037073</v>
+      </c>
+      <c r="E8">
+        <v>425515</v>
+      </c>
+      <c r="F8">
+        <v>1053720</v>
+      </c>
+      <c r="G8">
+        <v>1557838</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
         <v>14</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="14"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="23" t="s">
+      <c r="J8">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="K8">
+        <v>51.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2018</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
+        <v>4107541</v>
+      </c>
+      <c r="E9">
+        <v>1051421</v>
+      </c>
+      <c r="F9">
+        <v>1181174</v>
+      </c>
+      <c r="G9">
+        <v>1874946</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>25.6</v>
+      </c>
+      <c r="J9">
+        <v>28.8</v>
+      </c>
+      <c r="K9">
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>7144614</v>
+      </c>
+      <c r="E10">
+        <v>1476936</v>
+      </c>
+      <c r="F10">
+        <v>2234894</v>
+      </c>
+      <c r="G10">
+        <v>3432784</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>20.7</v>
+      </c>
+      <c r="J10">
+        <v>31.3</v>
+      </c>
+      <c r="K10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11">
+        <v>2290979</v>
+      </c>
+      <c r="E11">
+        <v>307035</v>
+      </c>
+      <c r="F11">
+        <v>680637</v>
+      </c>
+      <c r="G11">
+        <v>1303307</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>13.4</v>
+      </c>
+      <c r="J11">
+        <v>29.7</v>
+      </c>
+      <c r="K11">
+        <v>56.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2019</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12">
+        <v>2738143</v>
+      </c>
+      <c r="E12">
+        <v>516530</v>
+      </c>
+      <c r="F12">
+        <v>847492</v>
+      </c>
+      <c r="G12">
+        <v>1374121</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J12">
+        <v>31</v>
+      </c>
+      <c r="K12">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2019</v>
+      </c>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>836437</v>
+      </c>
+      <c r="E13">
+        <v>158421</v>
+      </c>
+      <c r="F13">
+        <v>412179</v>
+      </c>
+      <c r="G13">
+        <v>265837</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="J13">
+        <v>49.3</v>
+      </c>
+      <c r="K13">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2019</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14">
+        <v>1352582</v>
+      </c>
+      <c r="E14">
+        <v>483436</v>
+      </c>
+      <c r="F14">
+        <v>328103</v>
+      </c>
+      <c r="G14">
+        <v>541043</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="J14">
+        <v>24.3</v>
+      </c>
+      <c r="K14">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2019</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>5029122</v>
+      </c>
+      <c r="E15">
+        <v>823565</v>
+      </c>
+      <c r="F15">
+        <v>1528129</v>
+      </c>
+      <c r="G15">
+        <v>2677428</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="J15">
+        <v>30.4</v>
+      </c>
+      <c r="K15">
+        <v>53.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2019</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16">
+        <v>2189019</v>
+      </c>
+      <c r="E16">
+        <v>641857</v>
+      </c>
+      <c r="F16">
+        <v>740282</v>
+      </c>
+      <c r="G16">
+        <v>806880</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>29.3</v>
+      </c>
+      <c r="J16">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="K16">
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2019</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17">
+        <v>3127416</v>
+      </c>
+      <c r="E17">
+        <v>465456</v>
+      </c>
+      <c r="F17">
+        <v>1092816</v>
+      </c>
+      <c r="G17">
+        <v>1569144</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>14.9</v>
+      </c>
+      <c r="J17">
+        <v>34.9</v>
+      </c>
+      <c r="K17">
+        <v>50.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>4090725</v>
+      </c>
+      <c r="E18">
+        <v>999966</v>
+      </c>
+      <c r="F18">
+        <v>1175595</v>
+      </c>
+      <c r="G18">
+        <v>1915164</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>24.4</v>
+      </c>
+      <c r="J18">
+        <v>28.7</v>
+      </c>
+      <c r="K18">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2019</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19">
+        <v>7218141</v>
+      </c>
+      <c r="E19">
+        <v>1465422</v>
+      </c>
+      <c r="F19">
+        <v>2268411</v>
+      </c>
+      <c r="G19">
+        <v>3484308</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>20.3</v>
+      </c>
+      <c r="J19">
+        <v>31.4</v>
+      </c>
+      <c r="K19">
+        <v>48.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2020</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20">
+        <v>1952530</v>
+      </c>
+      <c r="E20">
+        <v>303597</v>
+      </c>
+      <c r="F20">
+        <v>491701</v>
+      </c>
+      <c r="G20">
+        <v>1157232</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>15.5</v>
+      </c>
+      <c r="J20">
+        <v>25.2</v>
+      </c>
+      <c r="K20">
+        <v>59.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>2441511</v>
+      </c>
+      <c r="E21">
+        <v>474809</v>
+      </c>
+      <c r="F21">
+        <v>605321</v>
+      </c>
+      <c r="G21">
+        <v>1361381</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J21">
+        <v>24.8</v>
+      </c>
+      <c r="K21">
+        <v>55.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2020</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22">
+        <v>728994</v>
+      </c>
+      <c r="E22">
+        <v>118086</v>
+      </c>
+      <c r="F22">
+        <v>348498</v>
+      </c>
+      <c r="G22">
+        <v>262410</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>16.2</v>
+      </c>
+      <c r="J22">
+        <v>47.8</v>
+      </c>
+      <c r="K22">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>1157282</v>
+      </c>
+      <c r="E23">
+        <v>392695</v>
+      </c>
+      <c r="F23">
+        <v>290242</v>
+      </c>
+      <c r="G23">
+        <v>474345</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>33.9</v>
+      </c>
+      <c r="J23">
+        <v>25.1</v>
+      </c>
+      <c r="K23">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2020</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>4394041</v>
+      </c>
+      <c r="E24">
+        <v>778406</v>
+      </c>
+      <c r="F24">
+        <v>1097022</v>
+      </c>
+      <c r="G24">
+        <v>2518613</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>17.7</v>
+      </c>
+      <c r="J24">
+        <v>25</v>
+      </c>
+      <c r="K24">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2020</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25">
+        <v>1886276</v>
+      </c>
+      <c r="E25">
+        <v>510781</v>
+      </c>
+      <c r="F25">
+        <v>638740</v>
+      </c>
+      <c r="G25">
+        <v>736755</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>27.1</v>
+      </c>
+      <c r="J25">
+        <v>33.9</v>
+      </c>
+      <c r="K25">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2020</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26">
+        <v>2681524</v>
+      </c>
+      <c r="E26">
+        <v>421683</v>
+      </c>
+      <c r="F26">
+        <v>840199</v>
+      </c>
+      <c r="G26">
+        <v>1419642</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>15.7</v>
+      </c>
+      <c r="J26">
+        <v>31.3</v>
+      </c>
+      <c r="K26">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2020</v>
+      </c>
+      <c r="B27" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>3598793</v>
+      </c>
+      <c r="E27">
+        <v>867504</v>
+      </c>
+      <c r="F27">
+        <v>895563</v>
+      </c>
+      <c r="G27">
+        <v>1835726</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>24.1</v>
+      </c>
+      <c r="J27">
+        <v>24.9</v>
+      </c>
+      <c r="K27">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2020</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28">
+        <v>6280317</v>
+      </c>
+      <c r="E28">
+        <v>1289187</v>
+      </c>
+      <c r="F28">
+        <v>1735762</v>
+      </c>
+      <c r="G28">
+        <v>3255368</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>20.5</v>
+      </c>
+      <c r="J28">
+        <v>27.6</v>
+      </c>
+      <c r="K28">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2021</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29">
+        <v>2181679</v>
+      </c>
+      <c r="E29">
+        <v>292158</v>
+      </c>
+      <c r="F29">
+        <v>616126</v>
+      </c>
+      <c r="G29">
+        <v>1273395</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>13.4</v>
+      </c>
+      <c r="J29">
+        <v>28.2</v>
+      </c>
+      <c r="K29">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2021</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30">
+        <v>2616787</v>
+      </c>
+      <c r="E30">
+        <v>484674</v>
+      </c>
+      <c r="F30">
+        <v>724972</v>
+      </c>
+      <c r="G30">
+        <v>1407141</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>18.5</v>
+      </c>
+      <c r="J30">
+        <v>27.7</v>
+      </c>
+      <c r="K30">
+        <v>53.8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2021</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>735695</v>
+      </c>
+      <c r="E31">
+        <v>135233</v>
+      </c>
+      <c r="F31">
+        <v>327338</v>
+      </c>
+      <c r="G31">
+        <v>273124</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="J31">
+        <v>44.5</v>
+      </c>
+      <c r="K31">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2021</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>1245586</v>
+      </c>
+      <c r="E32">
+        <v>426891</v>
+      </c>
+      <c r="F32">
+        <v>320096</v>
+      </c>
+      <c r="G32">
+        <v>498599</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="J32">
+        <v>25.7</v>
+      </c>
+      <c r="K32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2021</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>4798466</v>
+      </c>
+      <c r="E33">
+        <v>776832</v>
+      </c>
+      <c r="F33">
+        <v>1341098</v>
+      </c>
+      <c r="G33">
+        <v>2680536</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>16.2</v>
+      </c>
+      <c r="J33">
+        <v>27.9</v>
+      </c>
+      <c r="K33">
+        <v>55.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2021</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34">
+        <v>1981281</v>
+      </c>
+      <c r="E34">
+        <v>562124</v>
+      </c>
+      <c r="F34">
+        <v>647434</v>
+      </c>
+      <c r="G34">
+        <v>771723</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>28.4</v>
+      </c>
+      <c r="J34">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="K34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2021</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35">
+        <v>2917374</v>
+      </c>
+      <c r="E35">
+        <v>427391</v>
+      </c>
+      <c r="F35">
+        <v>943464</v>
+      </c>
+      <c r="G35">
+        <v>1546519</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>14.6</v>
+      </c>
+      <c r="J35">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="K35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2021</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D36">
+        <v>3862373</v>
+      </c>
+      <c r="E36">
+        <v>911565</v>
+      </c>
+      <c r="F36">
+        <v>1045068</v>
+      </c>
+      <c r="G36">
+        <v>1905740</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>23.6</v>
+      </c>
+      <c r="J36">
+        <v>27.1</v>
+      </c>
+      <c r="K36">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2021</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37">
+        <v>6779747</v>
+      </c>
+      <c r="E37">
+        <v>1338956</v>
+      </c>
+      <c r="F37">
+        <v>1988532</v>
+      </c>
+      <c r="G37">
+        <v>3452259</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>19.7</v>
+      </c>
+      <c r="J37">
+        <v>29.3</v>
+      </c>
+      <c r="K37">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2022</v>
+      </c>
+      <c r="B38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38">
+        <v>2165742</v>
+      </c>
+      <c r="E38">
+        <v>312784</v>
+      </c>
+      <c r="F38">
+        <v>608194</v>
+      </c>
+      <c r="G38">
+        <v>1244764</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>14.4</v>
+      </c>
+      <c r="J38">
+        <v>28.1</v>
+      </c>
+      <c r="K38">
+        <v>57.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2022</v>
+      </c>
+      <c r="B39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D39">
+        <v>2600732</v>
+      </c>
+      <c r="E39">
+        <v>574232</v>
+      </c>
+      <c r="F39">
+        <v>718995</v>
+      </c>
+      <c r="G39">
+        <v>1307505</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>22.1</v>
+      </c>
+      <c r="J39">
+        <v>27.6</v>
+      </c>
+      <c r="K39">
+        <v>50.3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2022</v>
+      </c>
+      <c r="B40" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40">
+        <v>813892</v>
+      </c>
+      <c r="E40">
+        <v>163960</v>
+      </c>
+      <c r="F40">
+        <v>368413</v>
+      </c>
+      <c r="G40">
+        <v>281519</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="J40">
+        <v>45.3</v>
+      </c>
+      <c r="K40">
+        <v>34.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2022</v>
+      </c>
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41">
+        <v>1346556</v>
+      </c>
+      <c r="E41">
+        <v>485899</v>
+      </c>
+      <c r="F41">
+        <v>330447</v>
+      </c>
+      <c r="G41">
+        <v>530210</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>36.1</v>
+      </c>
+      <c r="J41">
+        <v>24.5</v>
+      </c>
+      <c r="K41">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2022</v>
+      </c>
+      <c r="B42" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42">
+        <v>4766474</v>
+      </c>
+      <c r="E42">
+        <v>887016</v>
+      </c>
+      <c r="F42">
+        <v>1327189</v>
+      </c>
+      <c r="G42">
+        <v>2552269</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="J42">
+        <v>27.8</v>
+      </c>
+      <c r="K42">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2022</v>
+      </c>
+      <c r="B43" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43">
+        <v>2160448</v>
+      </c>
+      <c r="E43">
+        <v>649859</v>
+      </c>
+      <c r="F43">
+        <v>698860</v>
+      </c>
+      <c r="G43">
+        <v>811729</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>30.1</v>
+      </c>
+      <c r="J43">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="K43">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2022</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44">
+        <v>2979634</v>
+      </c>
+      <c r="E44">
+        <v>476744</v>
+      </c>
+      <c r="F44">
+        <v>976607</v>
+      </c>
+      <c r="G44">
+        <v>1526283</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
         <v>16</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="14"/>
-    </row>
-    <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36"/>
-      <c r="B4" s="20" t="s">
+      <c r="J44">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K44">
+        <v>51.2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2022</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45">
+        <v>3947288</v>
+      </c>
+      <c r="E45">
+        <v>1060131</v>
+      </c>
+      <c r="F45">
+        <v>1049442</v>
+      </c>
+      <c r="G45">
+        <v>1837715</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>26.9</v>
+      </c>
+      <c r="J45">
+        <v>26.6</v>
+      </c>
+      <c r="K45">
+        <v>46.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2022</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>6926922</v>
+      </c>
+      <c r="E46">
+        <v>1536875</v>
+      </c>
+      <c r="F46">
+        <v>2026049</v>
+      </c>
+      <c r="G46">
+        <v>3363998</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>22.2</v>
+      </c>
+      <c r="J46">
+        <v>29.2</v>
+      </c>
+      <c r="K46">
+        <v>48.6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2023</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>2191369</v>
+      </c>
+      <c r="E47">
+        <v>400545</v>
+      </c>
+      <c r="F47">
+        <v>591635</v>
+      </c>
+      <c r="G47">
+        <v>1199189</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>18.3</v>
+      </c>
+      <c r="J47">
+        <v>27</v>
+      </c>
+      <c r="K47">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2023</v>
+      </c>
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48">
+        <v>2673806</v>
+      </c>
+      <c r="E48">
+        <v>587899</v>
+      </c>
+      <c r="F48">
+        <v>727381</v>
+      </c>
+      <c r="G48">
+        <v>1358526</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>22</v>
+      </c>
+      <c r="J48">
+        <v>27.2</v>
+      </c>
+      <c r="K48">
+        <v>50.8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2023</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49">
+        <v>784750</v>
+      </c>
+      <c r="E49">
+        <v>165404</v>
+      </c>
+      <c r="F49">
+        <v>360272</v>
+      </c>
+      <c r="G49">
+        <v>259074</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>21.1</v>
+      </c>
+      <c r="J49">
+        <v>45.9</v>
+      </c>
+      <c r="K49">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2023</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
+      </c>
+      <c r="D50">
+        <v>1317482</v>
+      </c>
+      <c r="E50">
+        <v>463609</v>
+      </c>
+      <c r="F50">
+        <v>336112</v>
+      </c>
+      <c r="G50">
+        <v>517761</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="J50">
+        <v>25.5</v>
+      </c>
+      <c r="K50">
+        <v>39.299999999999997</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2023</v>
+      </c>
+      <c r="B51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51">
+        <v>4865175</v>
+      </c>
+      <c r="E51">
+        <v>988444</v>
+      </c>
+      <c r="F51">
+        <v>1319016</v>
+      </c>
+      <c r="G51">
+        <v>2557715</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <v>20.3</v>
+      </c>
+      <c r="J51">
+        <v>27.1</v>
+      </c>
+      <c r="K51">
+        <v>52.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2023</v>
+      </c>
+      <c r="B52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52">
+        <v>2102232</v>
+      </c>
+      <c r="E52">
+        <v>629013</v>
+      </c>
+      <c r="F52">
+        <v>696384</v>
+      </c>
+      <c r="G52">
+        <v>776835</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>29.9</v>
+      </c>
+      <c r="J52">
+        <v>33.1</v>
+      </c>
+      <c r="K52">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2023</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53">
+        <v>2976119</v>
+      </c>
+      <c r="E53">
+        <v>565949</v>
+      </c>
+      <c r="F53">
+        <v>951907</v>
+      </c>
+      <c r="G53">
+        <v>1458263</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>19</v>
+      </c>
+      <c r="J53">
+        <v>32</v>
+      </c>
+      <c r="K53">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2023</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54">
+        <v>3991288</v>
+      </c>
+      <c r="E54">
+        <v>1051508</v>
+      </c>
+      <c r="F54">
+        <v>1063493</v>
+      </c>
+      <c r="G54">
+        <v>1876287</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>26.3</v>
+      </c>
+      <c r="J54">
+        <v>26.6</v>
+      </c>
+      <c r="K54">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2023</v>
+      </c>
+      <c r="B55" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>6967407</v>
+      </c>
+      <c r="E55">
+        <v>1617457</v>
+      </c>
+      <c r="F55">
+        <v>2015400</v>
+      </c>
+      <c r="G55">
+        <v>3334550</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <v>23.2</v>
+      </c>
+      <c r="J55">
+        <v>28.9</v>
+      </c>
+      <c r="K55">
+        <v>47.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D1CF82-49B4-4F76-B978-57349D795049}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="20" t="s">
+      <c r="B1" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="14"/>
-    </row>
-    <row r="5" spans="1:14" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="37"/>
-      <c r="B5" s="17" t="s">
+      <c r="C1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="D1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="16" t="s">
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2018</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>3018200</v>
+      </c>
+      <c r="D2">
+        <v>951227</v>
+      </c>
+      <c r="E2">
+        <v>2251437</v>
+      </c>
+      <c r="F2">
+        <v>204809</v>
+      </c>
+      <c r="G2">
+        <v>31.5</v>
+      </c>
+      <c r="H2">
+        <v>74.599999999999994</v>
+      </c>
+      <c r="I2">
+        <v>6.8</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2018</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>4041006</v>
+      </c>
+      <c r="D3">
+        <v>593218</v>
+      </c>
+      <c r="E3">
+        <v>3649248</v>
+      </c>
+      <c r="F3">
+        <v>266075</v>
+      </c>
+      <c r="G3">
+        <v>14.7</v>
+      </c>
+      <c r="H3">
+        <v>90.3</v>
+      </c>
+      <c r="I3">
+        <v>6.6</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2018</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>7059206</v>
+      </c>
+      <c r="D4">
+        <v>1544445</v>
+      </c>
+      <c r="E4">
+        <v>5900685</v>
+      </c>
+      <c r="F4">
+        <v>470884</v>
+      </c>
+      <c r="G4">
+        <v>21.9</v>
+      </c>
+      <c r="H4">
+        <v>83.6</v>
+      </c>
+      <c r="I4">
+        <v>6.7</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5">
+        <v>3076390</v>
+      </c>
+      <c r="D5">
+        <v>1005257</v>
+      </c>
+      <c r="E5">
+        <v>2263218</v>
+      </c>
+      <c r="F5">
+        <v>218227</v>
+      </c>
+      <c r="G5">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="H5">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="I5">
+        <v>7.1</v>
+      </c>
+      <c r="K5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>4027390</v>
+      </c>
+      <c r="D6">
+        <v>561000</v>
+      </c>
+      <c r="E6">
+        <v>3558004</v>
+      </c>
+      <c r="F6">
+        <v>283034</v>
+      </c>
+      <c r="G6">
+        <v>13.9</v>
+      </c>
+      <c r="H6">
+        <v>88.3</v>
+      </c>
+      <c r="I6">
+        <v>7</v>
+      </c>
+      <c r="K6" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>7103780</v>
+      </c>
+      <c r="D7">
+        <v>1566257</v>
+      </c>
+      <c r="E7">
+        <v>5821222</v>
+      </c>
+      <c r="F7">
+        <v>501261</v>
+      </c>
+      <c r="G7">
         <v>22</v>
       </c>
-      <c r="K5" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="26">
-        <v>2013</v>
-      </c>
-      <c r="B6" s="27">
-        <v>1709181</v>
-      </c>
-      <c r="C6" s="28">
-        <v>657183.08333333337</v>
+      <c r="H7">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="I7">
+        <v>7.1</v>
+      </c>
+      <c r="K7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>2621381</v>
+      </c>
+      <c r="D8">
+        <v>756501</v>
+      </c>
+      <c r="E8">
+        <v>1913535</v>
+      </c>
+      <c r="F8">
+        <v>230599</v>
+      </c>
+      <c r="G8">
+        <v>28.9</v>
+      </c>
+      <c r="H8">
+        <v>73</v>
+      </c>
+      <c r="I8">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9">
+        <v>3409171</v>
+      </c>
+      <c r="D9">
+        <v>377347</v>
+      </c>
+      <c r="E9">
+        <v>2998343</v>
+      </c>
+      <c r="F9">
+        <v>282573</v>
+      </c>
+      <c r="G9">
+        <v>11.1</v>
+      </c>
+      <c r="H9">
+        <v>87.9</v>
+      </c>
+      <c r="I9">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2020</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>6030552</v>
+      </c>
+      <c r="D10">
+        <v>1133848</v>
+      </c>
+      <c r="E10">
+        <v>4911878</v>
+      </c>
+      <c r="F10">
+        <v>513172</v>
+      </c>
+      <c r="G10">
+        <v>18.8</v>
+      </c>
+      <c r="H10">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="I10">
+        <v>8.5</v>
+      </c>
+      <c r="K10" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2021</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>2898146</v>
+      </c>
+      <c r="D11">
+        <v>1047582</v>
+      </c>
+      <c r="E11">
+        <v>1988282</v>
+      </c>
+      <c r="F11">
+        <v>201825</v>
+      </c>
+      <c r="G11">
+        <v>36.1</v>
+      </c>
+      <c r="H11">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="K11" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2021</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12">
+        <v>3710307</v>
+      </c>
+      <c r="D12">
+        <v>488463</v>
+      </c>
+      <c r="E12">
+        <v>3215819</v>
+      </c>
+      <c r="F12">
+        <v>220936</v>
+      </c>
+      <c r="G12">
+        <v>13.2</v>
+      </c>
+      <c r="H12">
+        <v>86.7</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="K12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L12" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2021</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>6608453</v>
+      </c>
+      <c r="D13">
+        <v>1536045</v>
+      </c>
+      <c r="E13">
+        <v>5204101</v>
+      </c>
+      <c r="F13">
+        <v>422761</v>
+      </c>
+      <c r="G13">
+        <v>23.2</v>
+      </c>
+      <c r="H13">
+        <v>78.7</v>
+      </c>
+      <c r="I13">
+        <v>6.4</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>2022</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>2909899</v>
+      </c>
+      <c r="D14">
+        <v>1027212</v>
+      </c>
+      <c r="E14">
+        <v>2109983</v>
+      </c>
+      <c r="F14">
+        <v>196205</v>
+      </c>
+      <c r="G14">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="H14">
+        <v>72.5</v>
+      </c>
+      <c r="I14">
+        <v>6.7</v>
+      </c>
+      <c r="K14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>2022</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15">
+        <v>3845623</v>
+      </c>
+      <c r="D15">
+        <v>533916</v>
+      </c>
+      <c r="E15">
+        <v>3389719</v>
+      </c>
+      <c r="F15">
+        <v>249676</v>
+      </c>
+      <c r="G15">
+        <v>13.9</v>
+      </c>
+      <c r="H15">
+        <v>88.1</v>
+      </c>
+      <c r="I15">
+        <v>6.5</v>
+      </c>
+      <c r="K15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>2022</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>6755522</v>
+      </c>
+      <c r="D16">
+        <v>1561128</v>
+      </c>
+      <c r="E16">
+        <v>5499702</v>
+      </c>
+      <c r="F16">
+        <v>445881</v>
+      </c>
+      <c r="G16">
+        <v>23.1</v>
+      </c>
+      <c r="H16">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="I16">
+        <v>6.6</v>
+      </c>
+      <c r="K16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2023</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>2892418</v>
+      </c>
+      <c r="D17">
+        <v>1021051</v>
+      </c>
+      <c r="E17">
+        <v>2106085</v>
+      </c>
+      <c r="F17">
+        <v>180280</v>
+      </c>
+      <c r="G17">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="H17">
+        <v>72.8</v>
+      </c>
+      <c r="I17">
+        <v>6.2</v>
+      </c>
+      <c r="K17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L17" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2023</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>3875911</v>
+      </c>
+      <c r="D18">
+        <v>577074</v>
+      </c>
+      <c r="E18">
+        <v>3466663</v>
+      </c>
+      <c r="F18">
+        <v>267574</v>
+      </c>
+      <c r="G18">
+        <v>14.9</v>
+      </c>
+      <c r="H18">
+        <v>89.4</v>
+      </c>
+      <c r="I18">
+        <v>6.9</v>
+      </c>
+      <c r="K18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2023</v>
+      </c>
+      <c r="B19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>6768329</v>
+      </c>
+      <c r="D19">
+        <v>1598125</v>
+      </c>
+      <c r="E19">
+        <v>5572748</v>
+      </c>
+      <c r="F19">
+        <v>447854</v>
+      </c>
+      <c r="G19">
+        <v>23.6</v>
+      </c>
+      <c r="H19">
+        <v>82.3</v>
+      </c>
+      <c r="I19">
+        <v>6.6</v>
+      </c>
+      <c r="K19" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACB2129-4D3C-46F3-BD8E-F1B3C051D5C7}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>94.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1217EB7E-4A90-430B-8C0A-3ECF74D25B6A}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>6427885</v>
+      </c>
+      <c r="C2">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3">
+        <v>2004987</v>
+      </c>
+      <c r="C3">
+        <v>89.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4">
+        <v>3699651</v>
+      </c>
+      <c r="C4">
+        <v>88.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0096E20-159A-4F8B-9A22-08BC6CBBD972}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="29">
+        <v>1054462</v>
+      </c>
+      <c r="D2" s="29">
+        <v>865188</v>
+      </c>
+      <c r="E2" s="29">
+        <v>35112</v>
+      </c>
+      <c r="F2" s="29">
+        <v>154162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="29">
+        <v>941658</v>
+      </c>
+      <c r="D3" s="29">
+        <v>882739</v>
+      </c>
+      <c r="E3" s="29">
+        <v>16901</v>
+      </c>
+      <c r="F3" s="29">
+        <v>42018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="29">
+        <v>793035</v>
+      </c>
+      <c r="D4" s="29">
+        <v>759442</v>
+      </c>
+      <c r="E4" s="29">
+        <v>11282</v>
+      </c>
+      <c r="F4" s="29">
+        <v>22311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="29">
+        <v>602502</v>
+      </c>
+      <c r="D5" s="29">
+        <v>581631</v>
+      </c>
+      <c r="E5" s="29">
+        <v>7193</v>
+      </c>
+      <c r="F5" s="29">
+        <v>13678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="29">
+        <v>404175</v>
       </c>
       <c r="D6" s="29">
-        <v>1051997.9166666667</v>
-      </c>
-      <c r="E6" s="27">
-        <v>169685</v>
-      </c>
-      <c r="F6" s="28">
-        <v>65076.25</v>
-      </c>
-      <c r="G6" s="29">
-        <v>104608.75</v>
-      </c>
-      <c r="H6" s="27">
-        <v>2597616.9166666665</v>
-      </c>
-      <c r="I6" s="28">
-        <v>1848370.5</v>
-      </c>
-      <c r="J6" s="29">
-        <v>749246.41666666663</v>
-      </c>
-      <c r="K6" s="27">
-        <v>1326849</v>
-      </c>
-      <c r="L6" s="28">
-        <v>126660.08333333333</v>
-      </c>
-      <c r="M6" s="30">
-        <v>1200188.9166666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
-        <v>2014</v>
-      </c>
-      <c r="B7" s="27">
-        <v>1740121.4166666665</v>
-      </c>
-      <c r="C7" s="28">
-        <v>687278.16666666663</v>
+        <v>391477</v>
+      </c>
+      <c r="E6" s="29">
+        <v>4320</v>
+      </c>
+      <c r="F6" s="29">
+        <v>8378</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="29">
+        <v>237241</v>
       </c>
       <c r="D7" s="29">
-        <v>1052843.25</v>
-      </c>
-      <c r="E7" s="27">
-        <v>179720.16666666666</v>
-      </c>
-      <c r="F7" s="28">
-        <v>72173.083333333328</v>
-      </c>
-      <c r="G7" s="29">
-        <v>107547.08333333333</v>
-      </c>
-      <c r="H7" s="27">
-        <v>2602068.75</v>
-      </c>
-      <c r="I7" s="28">
-        <v>1851739.9166666667</v>
-      </c>
-      <c r="J7" s="29">
-        <v>750328.83333333337</v>
-      </c>
-      <c r="K7" s="27">
-        <v>1331878.1666666665</v>
-      </c>
-      <c r="L7" s="28">
-        <v>143760.58333333334</v>
-      </c>
-      <c r="M7" s="30">
-        <v>1188117.5833333333</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="26">
-        <v>2015</v>
-      </c>
-      <c r="B8" s="27">
-        <v>1832417.5</v>
-      </c>
-      <c r="C8" s="28">
-        <v>779147.25</v>
+        <v>229300</v>
+      </c>
+      <c r="E7" s="29">
+        <v>2502</v>
+      </c>
+      <c r="F7" s="29">
+        <v>5439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="29">
+        <v>111080</v>
       </c>
       <c r="D8" s="29">
-        <v>1053270.25</v>
-      </c>
-      <c r="E8" s="27">
-        <v>188895.83333333331</v>
-      </c>
-      <c r="F8" s="28">
-        <v>79710</v>
-      </c>
-      <c r="G8" s="29">
-        <v>109185.83333333333</v>
-      </c>
-      <c r="H8" s="27">
-        <v>2972537.25</v>
-      </c>
-      <c r="I8" s="28">
-        <v>2221624.9166666665</v>
-      </c>
-      <c r="J8" s="29">
-        <v>750912.33333333337</v>
-      </c>
-      <c r="K8" s="27">
-        <v>1335061.0833333333</v>
-      </c>
-      <c r="L8" s="28">
-        <v>160828</v>
-      </c>
-      <c r="M8" s="30">
-        <v>1174233.0833333333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="26">
-        <v>2016</v>
-      </c>
-      <c r="B9" s="27">
-        <v>1932691.5833333335</v>
-      </c>
-      <c r="C9" s="28">
-        <v>873333.83333333337</v>
+        <v>105804</v>
+      </c>
+      <c r="E8" s="29">
+        <v>1231</v>
+      </c>
+      <c r="F8" s="29">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="29">
+        <v>30852</v>
       </c>
       <c r="D9" s="29">
-        <v>1059357.75</v>
-      </c>
-      <c r="E9" s="27">
-        <v>199984</v>
-      </c>
-      <c r="F9" s="28">
-        <v>90786.333333333328</v>
-      </c>
-      <c r="G9" s="29">
-        <v>109197.66666666667</v>
-      </c>
-      <c r="H9" s="27">
-        <v>3169955.5</v>
-      </c>
-      <c r="I9" s="28">
-        <v>2419808.5833333335</v>
-      </c>
-      <c r="J9" s="29">
-        <v>750146.91666666663</v>
-      </c>
-      <c r="K9" s="27">
-        <v>1344458.4166666667</v>
-      </c>
-      <c r="L9" s="28">
-        <v>184805.25</v>
-      </c>
-      <c r="M9" s="30">
-        <v>1159653.1666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="26">
-        <v>2017</v>
-      </c>
-      <c r="B10" s="27">
-        <v>2004772.6666666665</v>
-      </c>
-      <c r="C10" s="28">
-        <v>926038.66666666663</v>
+        <v>27807</v>
+      </c>
+      <c r="E9" s="29">
+        <v>494</v>
+      </c>
+      <c r="F9" s="29">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="29">
+        <v>4200</v>
       </c>
       <c r="D10" s="29">
-        <v>1078734</v>
-      </c>
-      <c r="E10" s="27">
-        <v>214513.91666666666</v>
-      </c>
-      <c r="F10" s="28">
-        <v>106108.58333333333</v>
-      </c>
-      <c r="G10" s="29">
-        <v>108405.33333333333</v>
-      </c>
-      <c r="H10" s="27">
-        <v>3240408.9166666665</v>
-      </c>
-      <c r="I10" s="28">
-        <v>2484153.5</v>
-      </c>
-      <c r="J10" s="29">
-        <v>756255.41666666663</v>
-      </c>
-      <c r="K10" s="27">
-        <v>1358485.1666666665</v>
-      </c>
-      <c r="L10" s="28">
-        <v>212666.58333333334</v>
-      </c>
-      <c r="M10" s="30">
-        <v>1145818.5833333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
-        <v>2018</v>
-      </c>
-      <c r="B11" s="32">
-        <v>2007875.0833333333</v>
-      </c>
-      <c r="C11" s="33">
-        <v>915900.5</v>
-      </c>
-      <c r="D11" s="34">
-        <v>1091974.5833333333</v>
-      </c>
-      <c r="E11" s="32">
-        <v>225157.41666666666</v>
-      </c>
-      <c r="F11" s="33">
-        <v>120800.08333333333</v>
-      </c>
-      <c r="G11" s="34">
-        <v>104357.33333333333</v>
-      </c>
-      <c r="H11" s="32">
-        <v>3258062</v>
-      </c>
-      <c r="I11" s="33">
-        <v>2498008.5</v>
-      </c>
-      <c r="J11" s="34">
-        <v>760053.5</v>
-      </c>
-      <c r="K11" s="32">
-        <v>1363341.9166666667</v>
-      </c>
-      <c r="L11" s="33">
-        <v>234946.25</v>
-      </c>
-      <c r="M11" s="35">
-        <v>1128395.6666666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
-        <v>2019</v>
-      </c>
-      <c r="B12" s="32">
-        <v>1996221.5</v>
-      </c>
-      <c r="C12" s="34">
-        <v>902729</v>
-      </c>
-      <c r="D12" s="34">
-        <v>1093492.5</v>
-      </c>
-      <c r="E12" s="32">
-        <v>233012.33333333334</v>
-      </c>
-      <c r="F12" s="34">
-        <v>133304.83333333334</v>
-      </c>
-      <c r="G12" s="34">
-        <v>99707.5</v>
-      </c>
-      <c r="H12" s="32">
-        <v>3270614.083333333</v>
-      </c>
-      <c r="I12" s="34">
-        <v>2514669.9166666665</v>
-      </c>
-      <c r="J12" s="34">
-        <v>755944.16666666663</v>
-      </c>
-      <c r="K12" s="32">
-        <v>1363162.0833333333</v>
-      </c>
-      <c r="L12" s="34">
-        <v>254503.25</v>
-      </c>
-      <c r="M12" s="35">
-        <v>1108658.8333333333</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="31">
-        <v>2020</v>
-      </c>
-      <c r="B13" s="32">
-        <v>1975433.6666666665</v>
-      </c>
-      <c r="C13" s="34">
-        <v>884029.16666666663</v>
-      </c>
-      <c r="D13" s="34">
-        <v>1091404.5</v>
-      </c>
-      <c r="E13" s="32">
-        <v>239877</v>
-      </c>
-      <c r="F13" s="34">
-        <v>140305.75</v>
-      </c>
-      <c r="G13" s="34">
-        <v>99571.25</v>
-      </c>
-      <c r="H13" s="32">
-        <v>3262124.9166666665</v>
-      </c>
-      <c r="I13" s="34">
-        <v>2510356.25</v>
-      </c>
-      <c r="J13" s="34">
-        <v>751768.66666666663</v>
-      </c>
-      <c r="K13" s="32">
-        <v>1363641.0833333335</v>
-      </c>
-      <c r="L13" s="34">
-        <v>269795.16666666669</v>
-      </c>
-      <c r="M13" s="35">
-        <v>1093845.9166666667</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="31">
-        <v>2021</v>
-      </c>
-      <c r="B14" s="32">
-        <v>1931837.8333333335</v>
-      </c>
-      <c r="C14" s="34">
-        <v>856765.66666666663</v>
-      </c>
-      <c r="D14" s="34">
-        <v>1075072.1666666667</v>
-      </c>
-      <c r="E14" s="32">
-        <v>245631.83333333334</v>
-      </c>
-      <c r="F14" s="34">
-        <v>146558.08333333334</v>
-      </c>
-      <c r="G14" s="34">
-        <v>99073.75</v>
-      </c>
-      <c r="H14" s="32">
-        <v>3231713.5833333335</v>
-      </c>
-      <c r="I14" s="34">
-        <v>2490583.5</v>
-      </c>
-      <c r="J14" s="34">
-        <v>741130.08333333337</v>
-      </c>
-      <c r="K14" s="32">
-        <v>1364448.1666666665</v>
-      </c>
-      <c r="L14" s="34">
-        <v>286931.83333333331</v>
-      </c>
-      <c r="M14" s="35">
-        <v>1077516.3333333333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="31">
-        <v>2022</v>
-      </c>
-      <c r="B15" s="32">
-        <v>1920294.5</v>
-      </c>
-      <c r="C15" s="34">
-        <v>835257.33333333337</v>
-      </c>
-      <c r="D15" s="34">
-        <v>1085037.1666666667</v>
-      </c>
-      <c r="E15" s="32">
-        <v>257329.5</v>
-      </c>
-      <c r="F15" s="34">
-        <v>156710.58333333334</v>
-      </c>
-      <c r="G15" s="34">
-        <v>100618.91666666667</v>
-      </c>
-      <c r="H15" s="32">
-        <v>3332275.75</v>
-      </c>
-      <c r="I15" s="34">
-        <v>2590449.4166666665</v>
-      </c>
-      <c r="J15" s="34">
-        <v>741826.33333333337</v>
-      </c>
-      <c r="K15" s="32">
-        <v>1374283.8333333333</v>
-      </c>
-      <c r="L15" s="34">
-        <v>309309.5</v>
-      </c>
-      <c r="M15" s="35">
-        <v>1064974.3333333333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="31">
-        <v>2023</v>
-      </c>
-      <c r="B16" s="32">
-        <v>1938934.6666666665</v>
-      </c>
-      <c r="C16" s="34">
-        <v>850511.83333333337</v>
-      </c>
-      <c r="D16" s="34">
-        <v>1088422.8333333333</v>
-      </c>
-      <c r="E16" s="32">
-        <v>268077</v>
-      </c>
-      <c r="F16" s="34">
-        <v>165720.33333333334</v>
-      </c>
-      <c r="G16" s="34">
-        <v>102356.66666666667</v>
-      </c>
-      <c r="H16" s="32">
-        <v>3422354</v>
-      </c>
-      <c r="I16" s="34">
-        <v>2680910.25</v>
-      </c>
-      <c r="J16" s="34">
-        <v>741443.75</v>
-      </c>
-      <c r="K16" s="32">
-        <v>1374908.0833333335</v>
-      </c>
-      <c r="L16" s="34">
-        <v>326857.25</v>
-      </c>
-      <c r="M16" s="35">
-        <v>1048050.8333333334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="19">
-        <v>45444</v>
-      </c>
-      <c r="B17" s="32">
-        <v>2063279</v>
-      </c>
-      <c r="C17" s="34">
-        <v>965637</v>
-      </c>
-      <c r="D17" s="34">
-        <v>1097642</v>
-      </c>
-      <c r="E17" s="32">
-        <v>275090</v>
-      </c>
-      <c r="F17" s="34">
-        <v>171699</v>
-      </c>
-      <c r="G17" s="34">
-        <v>103391</v>
-      </c>
-      <c r="H17" s="32">
-        <v>3561762</v>
-      </c>
-      <c r="I17" s="34">
-        <v>2817236</v>
-      </c>
-      <c r="J17" s="34">
-        <v>744526</v>
-      </c>
-      <c r="K17" s="32">
-        <v>1370988</v>
-      </c>
-      <c r="L17" s="34">
-        <v>338633</v>
-      </c>
-      <c r="M17" s="35">
-        <v>1032355</v>
+        <v>3751</v>
+      </c>
+      <c r="E10" s="29">
+        <v>84</v>
+      </c>
+      <c r="F10" s="29">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="27">
+        <f>SUM(C2:C10)</f>
+        <v>4179205</v>
+      </c>
+      <c r="D11" s="27">
+        <f t="shared" ref="D11:F11" si="0">SUM(D2:D10)</f>
+        <v>3847139</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>79119</v>
+      </c>
+      <c r="F11" s="27">
+        <f t="shared" si="0"/>
+        <v>252947</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="29">
+        <v>790896</v>
+      </c>
+      <c r="D12" s="29">
+        <v>684782</v>
+      </c>
+      <c r="E12" s="29">
+        <v>17600</v>
+      </c>
+      <c r="F12" s="29">
+        <v>88514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="29">
+        <v>622529</v>
+      </c>
+      <c r="D13" s="29">
+        <v>592567</v>
+      </c>
+      <c r="E13" s="29">
+        <v>8665</v>
+      </c>
+      <c r="F13" s="29">
+        <v>21297</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="29">
+        <v>419408</v>
+      </c>
+      <c r="D14" s="29">
+        <v>402784</v>
+      </c>
+      <c r="E14" s="29">
+        <v>5083</v>
+      </c>
+      <c r="F14" s="29">
+        <v>11541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="29">
+        <v>241330</v>
+      </c>
+      <c r="D15" s="29">
+        <v>232105</v>
+      </c>
+      <c r="E15" s="29">
+        <v>2749</v>
+      </c>
+      <c r="F15" s="29">
+        <v>6476</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="29">
+        <v>116378</v>
+      </c>
+      <c r="D16" s="29">
+        <v>111303</v>
+      </c>
+      <c r="E16" s="29">
+        <v>1325</v>
+      </c>
+      <c r="F16" s="29">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="29">
+        <v>45076</v>
+      </c>
+      <c r="D17" s="29">
+        <v>41293</v>
+      </c>
+      <c r="E17" s="29">
+        <v>628</v>
+      </c>
+      <c r="F17" s="29">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="29">
+        <v>11729</v>
+      </c>
+      <c r="D18" s="29">
+        <v>9345</v>
+      </c>
+      <c r="E18" s="29">
+        <v>235</v>
+      </c>
+      <c r="F18" s="29">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="31">
+        <v>1334</v>
+      </c>
+      <c r="D19" s="31">
+        <v>1109</v>
+      </c>
+      <c r="E19" s="31">
+        <v>31</v>
+      </c>
+      <c r="F19" s="31">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="27">
+        <f>SUM(C12:C19)</f>
+        <v>2248680</v>
+      </c>
+      <c r="D20" s="27">
+        <f t="shared" ref="D20:F20" si="1">SUM(D12:D19)</f>
+        <v>2075288</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="1"/>
+        <v>36316</v>
+      </c>
+      <c r="F20" s="27">
+        <f t="shared" si="1"/>
+        <v>137076</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="H3:M3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:M4"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>